--- a/biology/Botanique/Belle_de_Pontoise/Belle_de_Pontoise.xlsx
+++ b/biology/Botanique/Belle_de_Pontoise/Belle_de_Pontoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle de Pontoise est un cultivar de pommier domestique.
 </t>
@@ -513,17 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fruit
-Usage : à couteau
-Calibre : très gros, sphérique, parfois sphérico-conique, parfois tronqué à la base, anguleux dans son pourtour peu régulier[1].
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Usage : à couteau
+Calibre : très gros, sphérique, parfois sphérico-conique, parfois tronqué à la base, anguleux dans son pourtour peu régulier.
 Épiderme : lisse, jaune blanchâtre, teinté et granité de rouge carminé, bien strié et marbré de rouge cerise vif, parsemé de points gris blanchâtre, plaqué de fauve dans la cavité caudale.
-Chair : blanchâtre, juteuse, sucrée, acidulée[1].
-Arbre
-Culture : l'arbre est vigoureux, rustique et très fertile, à rameaux longs de moyenne force, dressés ou légèrement recourbés, d'un marron clair rougeâtre, duveté de gris, lenticelles petites.
-Sa place est au verger en plein vent où il produit abondamment pour la culture intensive, en petites formes pour la culture d'amateur.
-Époque de floraison : moyenne saison.
-Fruit d'amateur et de commerce[2].
-</t>
+Chair : blanchâtre, juteuse, sucrée, acidulée.</t>
         </is>
       </c>
     </row>
@@ -548,12 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Origine</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce cultivar est né en 1869, en France, d'un semis de Grand Alexandre, obtenu par M. Rémi, père, à Pontoise[1].
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture : l'arbre est vigoureux, rustique et très fertile, à rameaux longs de moyenne force, dressés ou légèrement recourbés, d'un marron clair rougeâtre, duveté de gris, lenticelles petites.
+Sa place est au verger en plein vent où il produit abondamment pour la culture intensive, en petites formes pour la culture d'amateur.
+Époque de floraison : moyenne saison.
+Fruit d'amateur et de commerce.
 </t>
         </is>
       </c>
@@ -579,12 +599,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parenté</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grand Alexandre[1].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar est né en 1869, en France, d'un semis de Grand Alexandre, obtenu par M. Rémi, père, à Pontoise.
 </t>
         </is>
       </c>
@@ -610,14 +632,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pollinisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Groupe de floraison : C[3].
-S-génotype : S4S43 [4]
-Pollinisateurs : ?</t>
+          <t>Parenté</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand Alexandre.
+</t>
         </is>
       </c>
     </row>
@@ -642,10 +665,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Groupe de floraison : C.
+S-génotype : S4S43 
+Pollinisateurs : ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Belle_de_Pontoise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_de_Pontoise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tavelure : ?
 Mildiou : ?
@@ -655,31 +714,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Belle_de_Pontoise</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Belle_de_Pontoise</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Vigueur du cultivar : ?
 Maturité : janvier
